--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1005.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1005.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.181583039674066</v>
+        <v>1.355932831764221</v>
       </c>
       <c r="B1">
-        <v>2.455320816309927</v>
+        <v>1.508608937263489</v>
       </c>
       <c r="C1">
-        <v>4.529489523397457</v>
+        <v>1.824611067771912</v>
       </c>
       <c r="D1">
-        <v>2.469391454305035</v>
+        <v>2.808193922042847</v>
       </c>
       <c r="E1">
-        <v>1.033215630974297</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
